--- a/NCT/Test.xlsx
+++ b/NCT/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\NCT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -371,581 +378,580 @@
     <t>GOTV04316800</t>
   </si>
   <si>
+    <t>BVB0719SA00377629</t>
+  </si>
+  <si>
+    <t>SA003776290101</t>
+  </si>
+  <si>
+    <t>BVB0719</t>
+  </si>
+  <si>
+    <t>BREVIK BRIDGE</t>
+  </si>
+  <si>
+    <t>ACLU9774012</t>
+  </si>
+  <si>
+    <t>SA00383721</t>
+  </si>
+  <si>
+    <t>7310516669</t>
+  </si>
+  <si>
+    <t>03219</t>
+  </si>
+  <si>
+    <t>ACLU9788443</t>
+  </si>
+  <si>
+    <t>PRGV01448500</t>
+  </si>
+  <si>
+    <t>CHI1197329-CHI8134684</t>
+  </si>
+  <si>
+    <t>MOFU0707631</t>
+  </si>
+  <si>
+    <t>HLCUHEL190306866</t>
+  </si>
+  <si>
+    <t>7250574876</t>
+  </si>
+  <si>
+    <t>DJCLTA4072648</t>
+  </si>
+  <si>
+    <t>00121</t>
+  </si>
+  <si>
+    <t>ST LOUIS EXPRESS</t>
+  </si>
+  <si>
+    <t>UACU5720042</t>
+  </si>
+  <si>
+    <t>HLCUFRA190309184</t>
+  </si>
+  <si>
+    <t>7310516632</t>
+  </si>
+  <si>
+    <t>DJCHSA4082596</t>
+  </si>
+  <si>
+    <t>00119</t>
+  </si>
+  <si>
+    <t>FCIU7444645</t>
+  </si>
+  <si>
+    <t>CMDUFRA0343699</t>
+  </si>
+  <si>
+    <t>7310515770</t>
+  </si>
+  <si>
+    <t>CAXU8137879</t>
+  </si>
+  <si>
+    <t>PRGV01677900</t>
+  </si>
+  <si>
+    <t>CHI1197329-CHI8134683</t>
+  </si>
+  <si>
+    <t>KKFU1700223</t>
+  </si>
+  <si>
+    <t>BUDV00428400</t>
+  </si>
+  <si>
+    <t>CHI1202996-CHI8177772</t>
+  </si>
+  <si>
+    <t>MOTU0683663</t>
+  </si>
+  <si>
+    <t>HLCUHAM190315641</t>
+  </si>
+  <si>
+    <t>7310515681</t>
+  </si>
+  <si>
+    <t>DJCHSA4077914</t>
+  </si>
+  <si>
+    <t>HLBU1516737</t>
+  </si>
+  <si>
+    <t>CMDUFRA0347556</t>
+  </si>
+  <si>
+    <t>7310516363</t>
+  </si>
+  <si>
+    <t>DJCHSA4077939</t>
+  </si>
+  <si>
+    <t>ECMU4585061</t>
+  </si>
+  <si>
+    <t>CMDUFRA0346250</t>
+  </si>
+  <si>
+    <t>7310515218</t>
+  </si>
+  <si>
+    <t>DJCHSA4083556</t>
+  </si>
+  <si>
+    <t>UETU5558260</t>
+  </si>
+  <si>
+    <t>BUDV00418300</t>
+  </si>
+  <si>
+    <t>CHI1199355-CHI8134686</t>
+  </si>
+  <si>
+    <t>TCLU8264543</t>
+  </si>
+  <si>
+    <t>HLCUHAM190447740</t>
+  </si>
+  <si>
+    <t>7310515670</t>
+  </si>
+  <si>
+    <t>DJCHSA4077907</t>
+  </si>
+  <si>
+    <t>HLXU1208500</t>
+  </si>
+  <si>
+    <t>LIV190333613</t>
+  </si>
+  <si>
+    <t>7310516520</t>
+  </si>
+  <si>
+    <t>FSCU7149844</t>
+  </si>
+  <si>
+    <t>CMDUFRA0346961</t>
+  </si>
+  <si>
+    <t>7310515231</t>
+  </si>
+  <si>
+    <t>DJCHSA4083549</t>
+  </si>
+  <si>
+    <t>CMAU1644281</t>
+  </si>
+  <si>
+    <t>CMDUFRA0347189</t>
+  </si>
+  <si>
+    <t>7310516333</t>
+  </si>
+  <si>
+    <t>DJCHSA4077922</t>
+  </si>
+  <si>
+    <t>TGHU4996822</t>
+  </si>
+  <si>
+    <t>RTMV11562400</t>
+  </si>
+  <si>
+    <t>7310515512</t>
+  </si>
+  <si>
+    <t>00059</t>
+  </si>
+  <si>
+    <t>FDCU0499008</t>
+  </si>
+  <si>
+    <t>MEDUCO774573</t>
+  </si>
+  <si>
+    <t>7310512906</t>
+  </si>
+  <si>
+    <t>DJCHSA4074679</t>
+  </si>
+  <si>
+    <t>00917</t>
+  </si>
+  <si>
+    <t>MAERSK OHIO</t>
+  </si>
+  <si>
+    <t>DFSU6770949</t>
+  </si>
+  <si>
+    <t>MEDUCO757636</t>
+  </si>
+  <si>
+    <t>7310513143</t>
+  </si>
+  <si>
+    <t>DJCHSA4074658</t>
+  </si>
+  <si>
+    <t>MEDU8921703</t>
+  </si>
+  <si>
+    <t>MEDUCO757602</t>
+  </si>
+  <si>
+    <t>7310512904</t>
+  </si>
+  <si>
+    <t>DJCHSA4074624</t>
+  </si>
+  <si>
+    <t>BMOU6550243</t>
+  </si>
+  <si>
+    <t>CMDUGDY0201391</t>
+  </si>
+  <si>
+    <t>9089904666-01</t>
+  </si>
+  <si>
+    <t>CMAU0590637</t>
+  </si>
+  <si>
+    <t>CMDUFRA0343698</t>
+  </si>
+  <si>
+    <t>7310515139</t>
+  </si>
+  <si>
+    <t>TRLU7129738</t>
+  </si>
+  <si>
+    <t>ONEYTS9ND0810900</t>
+  </si>
+  <si>
+    <t>7310512656</t>
+  </si>
+  <si>
+    <t>DJCHSA4082564</t>
+  </si>
+  <si>
+    <t>00047</t>
+  </si>
+  <si>
+    <t>MOL MAESTRO</t>
+  </si>
+  <si>
+    <t>TRHU3934176</t>
+  </si>
+  <si>
+    <t>HLCUSHA1903CHFV0</t>
+  </si>
+  <si>
+    <t>7310513563</t>
+  </si>
+  <si>
+    <t>00035</t>
+  </si>
+  <si>
+    <t>ONE CONTRIBUTION</t>
+  </si>
+  <si>
+    <t>TGHU6424127</t>
+  </si>
+  <si>
+    <t>HLCUHAM190218250</t>
+  </si>
+  <si>
+    <t>7310515766</t>
+  </si>
+  <si>
+    <t>DRYU9146004</t>
+  </si>
+  <si>
+    <t>HLCUHAM190456195</t>
+  </si>
+  <si>
+    <t>7310515678</t>
+  </si>
+  <si>
+    <t>DJCHSA4077930</t>
+  </si>
+  <si>
+    <t>TGHU5206943</t>
+  </si>
+  <si>
+    <t>HLCUFRA190309320</t>
+  </si>
+  <si>
+    <t>7310516813</t>
+  </si>
+  <si>
+    <t>FCIU8466470</t>
+  </si>
+  <si>
+    <t>CMDUFRA0346336</t>
+  </si>
+  <si>
+    <t>7310515220</t>
+  </si>
+  <si>
+    <t>DJCHSA4083541</t>
+  </si>
+  <si>
+    <t>APZU4679990</t>
+  </si>
+  <si>
+    <t>HLCUEUR1902APTK8</t>
+  </si>
+  <si>
+    <t>7310515768</t>
+  </si>
+  <si>
+    <t>TCNU8468009</t>
+  </si>
+  <si>
+    <t>RTMV11968700</t>
+  </si>
+  <si>
+    <t>CHI1179806-CHI8004847</t>
+  </si>
+  <si>
+    <t>TCLU8490237</t>
+  </si>
+  <si>
+    <t>CHI1179550-CHI8004843</t>
+  </si>
+  <si>
+    <t>TCNU4900897</t>
+  </si>
+  <si>
+    <t>MEDUMD084940</t>
+  </si>
+  <si>
+    <t>7310513673</t>
+  </si>
+  <si>
+    <t>DJCHSA4043772</t>
+  </si>
+  <si>
+    <t>00913</t>
+  </si>
+  <si>
+    <t>MSC SILVANA</t>
+  </si>
+  <si>
+    <t>MEDU8671245</t>
+  </si>
+  <si>
+    <t>GOTV03673600</t>
+  </si>
+  <si>
+    <t>CHI1179746-CHI8004836</t>
+  </si>
+  <si>
+    <t>TCLU9303578</t>
+  </si>
+  <si>
+    <t>GOTV03861500</t>
+  </si>
+  <si>
+    <t>CHI1179744-CHI8004837</t>
+  </si>
+  <si>
+    <t>KKFU7903758</t>
+  </si>
+  <si>
+    <t>9089904593-01</t>
+  </si>
+  <si>
+    <t>MRKU3230274</t>
+  </si>
+  <si>
+    <t>PDX3119SA00373456</t>
+  </si>
+  <si>
+    <t>SA003734560101</t>
+  </si>
+  <si>
+    <t>PDX3119</t>
+  </si>
+  <si>
+    <t>CP YOSEMITE</t>
+  </si>
+  <si>
+    <t>BMOU4421479</t>
+  </si>
+  <si>
+    <t>HLCUFRA190309700</t>
+  </si>
+  <si>
+    <t>7310515651</t>
+  </si>
+  <si>
+    <t>XINU8108374</t>
+  </si>
+  <si>
+    <t>CHI1179739-CHI8004835</t>
+  </si>
+  <si>
+    <t>DRYU2609447</t>
+  </si>
+  <si>
+    <t>GOTV04022900</t>
+  </si>
+  <si>
+    <t>CHI1188149-CHI8038240</t>
+  </si>
+  <si>
+    <t>NYKU8535435</t>
+  </si>
+  <si>
+    <t>CHI1188147-CHI8038239</t>
+  </si>
+  <si>
+    <t>TCNU4447353</t>
+  </si>
+  <si>
+    <t>DJCHSA4043773</t>
+  </si>
+  <si>
+    <t>MSCU9192045</t>
+  </si>
+  <si>
+    <t>PDX3119SA00368716</t>
+  </si>
+  <si>
+    <t>SA003687160201</t>
+  </si>
+  <si>
+    <t>TMM YUCATAN</t>
+  </si>
+  <si>
+    <t>GCNU4679232</t>
+  </si>
+  <si>
+    <t>ACLUSA00372183</t>
+  </si>
+  <si>
+    <t>7310514672</t>
+  </si>
+  <si>
+    <t>DJCHSA4059949</t>
+  </si>
+  <si>
+    <t>MES2519</t>
+  </si>
+  <si>
+    <t>ACLU9655219</t>
+  </si>
+  <si>
+    <t>ACLUSA00372142</t>
+  </si>
+  <si>
+    <t>7310514688</t>
+  </si>
+  <si>
+    <t>DJCHSA4059919</t>
+  </si>
+  <si>
+    <t>ACLU9740455</t>
+  </si>
+  <si>
+    <t>SA003687160101</t>
+  </si>
+  <si>
+    <t>TEMU6832847</t>
+  </si>
+  <si>
+    <t>HAMV36265800</t>
+  </si>
+  <si>
+    <t>CHI1188105-CHI8074097</t>
+  </si>
+  <si>
+    <t>KKFU8066912</t>
+  </si>
+  <si>
+    <t>MAEU968352793</t>
+  </si>
+  <si>
+    <t>7310511324</t>
+  </si>
+  <si>
+    <t>DJCHSA4029347</t>
+  </si>
+  <si>
+    <t>00911</t>
+  </si>
+  <si>
+    <t>MAERSK HARTFORD</t>
+  </si>
+  <si>
+    <t>MSKU6631009</t>
+  </si>
+  <si>
+    <t>CHI1192951-CHI8107165</t>
+  </si>
+  <si>
+    <t>TCNU7861686</t>
+  </si>
+  <si>
+    <t>CHI1192951-CHI8107161</t>
+  </si>
+  <si>
+    <t>TCLU4905839</t>
+  </si>
+  <si>
+    <t>GOTV03987700</t>
+  </si>
+  <si>
+    <t>CHI1179725-CHI8004838</t>
+  </si>
+  <si>
+    <t>MOAU0642117</t>
+  </si>
+  <si>
+    <t>CHI1179550-CHI8004845</t>
+  </si>
+  <si>
+    <t>KKFU8098144</t>
+  </si>
+  <si>
+    <t>CHI1179730-CHI8004839</t>
+  </si>
+  <si>
+    <t>GESU6831011</t>
+  </si>
+  <si>
+    <t>CHI1192951-CHI8107164</t>
+  </si>
+  <si>
+    <t>TCNU6788507</t>
+  </si>
+  <si>
+    <t>CHI1192951-CHI8107162</t>
+  </si>
+  <si>
     <t>BSIU9559018</t>
-  </si>
-  <si>
-    <t>CHI1192951-CHI8107162</t>
-  </si>
-  <si>
-    <t>TCNU6788507</t>
-  </si>
-  <si>
-    <t>CHI1192951-CHI8107164</t>
-  </si>
-  <si>
-    <t>GESU6831011</t>
-  </si>
-  <si>
-    <t>CHI1179730-CHI8004839</t>
-  </si>
-  <si>
-    <t>GOTV03987700</t>
-  </si>
-  <si>
-    <t>KKFU8098144</t>
-  </si>
-  <si>
-    <t>CHI1179550-CHI8004845</t>
-  </si>
-  <si>
-    <t>MOAU0642117</t>
-  </si>
-  <si>
-    <t>CHI1179725-CHI8004838</t>
-  </si>
-  <si>
-    <t>TCLU4905839</t>
-  </si>
-  <si>
-    <t>CHI1192951-CHI8107161</t>
-  </si>
-  <si>
-    <t>TCNU7861686</t>
-  </si>
-  <si>
-    <t>CHI1192951-CHI8107165</t>
-  </si>
-  <si>
-    <t>MSKU6631009</t>
-  </si>
-  <si>
-    <t>MAERSK HARTFORD</t>
-  </si>
-  <si>
-    <t>00911</t>
-  </si>
-  <si>
-    <t>DJCHSA4029347</t>
-  </si>
-  <si>
-    <t>7310511324</t>
-  </si>
-  <si>
-    <t>MAEU968352793</t>
-  </si>
-  <si>
-    <t>KKFU8066912</t>
-  </si>
-  <si>
-    <t>CHI1188105-CHI8074097</t>
-  </si>
-  <si>
-    <t>HAMV36265800</t>
-  </si>
-  <si>
-    <t>TEMU6832847</t>
-  </si>
-  <si>
-    <t>TMM YUCATAN</t>
-  </si>
-  <si>
-    <t>PDX3119</t>
-  </si>
-  <si>
-    <t>SA003687160101</t>
-  </si>
-  <si>
-    <t>PDX3119SA00368716</t>
-  </si>
-  <si>
-    <t>ACLU9740455</t>
-  </si>
-  <si>
-    <t>MES2519</t>
-  </si>
-  <si>
-    <t>DJCHSA4059919</t>
-  </si>
-  <si>
-    <t>7310514688</t>
-  </si>
-  <si>
-    <t>ACLUSA00372142</t>
-  </si>
-  <si>
-    <t>ACLU9655219</t>
-  </si>
-  <si>
-    <t>DJCHSA4059949</t>
-  </si>
-  <si>
-    <t>7310514672</t>
-  </si>
-  <si>
-    <t>ACLUSA00372183</t>
-  </si>
-  <si>
-    <t>GCNU4679232</t>
-  </si>
-  <si>
-    <t>SA003687160201</t>
-  </si>
-  <si>
-    <t>MSCU9192045</t>
-  </si>
-  <si>
-    <t>MSC SILVANA</t>
-  </si>
-  <si>
-    <t>00913</t>
-  </si>
-  <si>
-    <t>DJCHSA4043773</t>
-  </si>
-  <si>
-    <t>7310513673</t>
-  </si>
-  <si>
-    <t>MEDUMD084940</t>
-  </si>
-  <si>
-    <t>TCNU4447353</t>
-  </si>
-  <si>
-    <t>CHI1188147-CHI8038239</t>
-  </si>
-  <si>
-    <t>NYKU8535435</t>
-  </si>
-  <si>
-    <t>CHI1188149-CHI8038240</t>
-  </si>
-  <si>
-    <t>GOTV04022900</t>
-  </si>
-  <si>
-    <t>DRYU2609447</t>
-  </si>
-  <si>
-    <t>CHI1179739-CHI8004835</t>
-  </si>
-  <si>
-    <t>GOTV03673600</t>
-  </si>
-  <si>
-    <t>XINU8108374</t>
-  </si>
-  <si>
-    <t>ST LOUIS EXPRESS</t>
-  </si>
-  <si>
-    <t>00121</t>
-  </si>
-  <si>
-    <t>7310515651</t>
-  </si>
-  <si>
-    <t>HLCUFRA190309700</t>
-  </si>
-  <si>
-    <t>BMOU4421479</t>
-  </si>
-  <si>
-    <t>CP YOSEMITE</t>
-  </si>
-  <si>
-    <t>SA003734560101</t>
-  </si>
-  <si>
-    <t>PDX3119SA00373456</t>
-  </si>
-  <si>
-    <t>MRKU3230274</t>
-  </si>
-  <si>
-    <t>9089904593-01</t>
-  </si>
-  <si>
-    <t>KKFU7903758</t>
-  </si>
-  <si>
-    <t>CHI1179744-CHI8004837</t>
-  </si>
-  <si>
-    <t>GOTV03861500</t>
-  </si>
-  <si>
-    <t>TCLU9303578</t>
-  </si>
-  <si>
-    <t>CHI1179746-CHI8004836</t>
-  </si>
-  <si>
-    <t>MEDU8671245</t>
-  </si>
-  <si>
-    <t>DJCHSA4043772</t>
-  </si>
-  <si>
-    <t>TCNU4900897</t>
-  </si>
-  <si>
-    <t>CHI1179550-CHI8004843</t>
-  </si>
-  <si>
-    <t>TCLU8490237</t>
-  </si>
-  <si>
-    <t>CHI1179806-CHI8004847</t>
-  </si>
-  <si>
-    <t>RTMV11968700</t>
-  </si>
-  <si>
-    <t>TCNU8468009</t>
-  </si>
-  <si>
-    <t>7310515768</t>
-  </si>
-  <si>
-    <t>HLCUEUR1902APTK8</t>
-  </si>
-  <si>
-    <t>APZU4679990</t>
-  </si>
-  <si>
-    <t>DJCHSA4083541</t>
-  </si>
-  <si>
-    <t>7310515220</t>
-  </si>
-  <si>
-    <t>CMDUFRA0346336</t>
-  </si>
-  <si>
-    <t>FCIU8466470</t>
-  </si>
-  <si>
-    <t>00119</t>
-  </si>
-  <si>
-    <t>7310516813</t>
-  </si>
-  <si>
-    <t>HLCUFRA190309320</t>
-  </si>
-  <si>
-    <t>TGHU5206943</t>
-  </si>
-  <si>
-    <t>DJCHSA4077930</t>
-  </si>
-  <si>
-    <t>7310515678</t>
-  </si>
-  <si>
-    <t>HLCUHAM190456195</t>
-  </si>
-  <si>
-    <t>DRYU9146004</t>
-  </si>
-  <si>
-    <t>7310515766</t>
-  </si>
-  <si>
-    <t>HLCUHAM190218250</t>
-  </si>
-  <si>
-    <t>TGHU6424127</t>
-  </si>
-  <si>
-    <t>ONE CONTRIBUTION</t>
-  </si>
-  <si>
-    <t>00035</t>
-  </si>
-  <si>
-    <t>7310513563</t>
-  </si>
-  <si>
-    <t>HLCUSHA1903CHFV0</t>
-  </si>
-  <si>
-    <t>TRHU3934176</t>
-  </si>
-  <si>
-    <t>MOL MAESTRO</t>
-  </si>
-  <si>
-    <t>00047</t>
-  </si>
-  <si>
-    <t>DJCHSA4082564</t>
-  </si>
-  <si>
-    <t>7310512656</t>
-  </si>
-  <si>
-    <t>ONEYTS9ND0810900</t>
-  </si>
-  <si>
-    <t>TRLU7129738</t>
-  </si>
-  <si>
-    <t>7310515139</t>
-  </si>
-  <si>
-    <t>CMDUFRA0343698</t>
-  </si>
-  <si>
-    <t>CMAU0590637</t>
-  </si>
-  <si>
-    <t>9089904666-01</t>
-  </si>
-  <si>
-    <t>CMDUGDY0201391</t>
-  </si>
-  <si>
-    <t>BMOU6550243</t>
-  </si>
-  <si>
-    <t>MAERSK OHIO</t>
-  </si>
-  <si>
-    <t>00917</t>
-  </si>
-  <si>
-    <t>DJCHSA4074624</t>
-  </si>
-  <si>
-    <t>7310512904</t>
-  </si>
-  <si>
-    <t>MEDUCO757602</t>
-  </si>
-  <si>
-    <t>MEDU8921703</t>
-  </si>
-  <si>
-    <t>DJCHSA4074658</t>
-  </si>
-  <si>
-    <t>7310513143</t>
-  </si>
-  <si>
-    <t>MEDUCO757636</t>
-  </si>
-  <si>
-    <t>DFSU6770949</t>
-  </si>
-  <si>
-    <t>DJCHSA4074679</t>
-  </si>
-  <si>
-    <t>7310512906</t>
-  </si>
-  <si>
-    <t>MEDUCO774573</t>
-  </si>
-  <si>
-    <t>FDCU0499008</t>
-  </si>
-  <si>
-    <t>00059</t>
-  </si>
-  <si>
-    <t>7310515512</t>
-  </si>
-  <si>
-    <t>RTMV11562400</t>
-  </si>
-  <si>
-    <t>TGHU4996822</t>
-  </si>
-  <si>
-    <t>DJCHSA4077922</t>
-  </si>
-  <si>
-    <t>7310516333</t>
-  </si>
-  <si>
-    <t>CMDUFRA0347189</t>
-  </si>
-  <si>
-    <t>CMAU1644281</t>
-  </si>
-  <si>
-    <t>DJCHSA4083549</t>
-  </si>
-  <si>
-    <t>7310515231</t>
-  </si>
-  <si>
-    <t>CMDUFRA0346961</t>
-  </si>
-  <si>
-    <t>FSCU7149844</t>
-  </si>
-  <si>
-    <t>7310516520</t>
-  </si>
-  <si>
-    <t>LIV190333613</t>
-  </si>
-  <si>
-    <t>HLXU1208500</t>
-  </si>
-  <si>
-    <t>DJCHSA4077907</t>
-  </si>
-  <si>
-    <t>7310515670</t>
-  </si>
-  <si>
-    <t>HLCUHAM190447740</t>
-  </si>
-  <si>
-    <t>TCLU8264543</t>
-  </si>
-  <si>
-    <t>CHI1199355-CHI8134686</t>
-  </si>
-  <si>
-    <t>BUDV00418300</t>
-  </si>
-  <si>
-    <t>UETU5558260</t>
-  </si>
-  <si>
-    <t>DJCHSA4083556</t>
-  </si>
-  <si>
-    <t>7310515218</t>
-  </si>
-  <si>
-    <t>CMDUFRA0346250</t>
-  </si>
-  <si>
-    <t>ECMU4585061</t>
-  </si>
-  <si>
-    <t>DJCHSA4077939</t>
-  </si>
-  <si>
-    <t>7310516363</t>
-  </si>
-  <si>
-    <t>CMDUFRA0347556</t>
-  </si>
-  <si>
-    <t>HLBU1516737</t>
-  </si>
-  <si>
-    <t>DJCHSA4077914</t>
-  </si>
-  <si>
-    <t>7310515681</t>
-  </si>
-  <si>
-    <t>HLCUHAM190315641</t>
-  </si>
-  <si>
-    <t>MOTU0683663</t>
-  </si>
-  <si>
-    <t>CHI1202996-CHI8177772</t>
-  </si>
-  <si>
-    <t>BUDV00428400</t>
-  </si>
-  <si>
-    <t>KKFU1700223</t>
-  </si>
-  <si>
-    <t>CHI1197329-CHI8134683</t>
-  </si>
-  <si>
-    <t>PRGV01677900</t>
-  </si>
-  <si>
-    <t>CAXU8137879</t>
-  </si>
-  <si>
-    <t>7310515770</t>
-  </si>
-  <si>
-    <t>CMDUFRA0343699</t>
-  </si>
-  <si>
-    <t>FCIU7444645</t>
-  </si>
-  <si>
-    <t>DJCHSA4082596</t>
-  </si>
-  <si>
-    <t>7310516632</t>
-  </si>
-  <si>
-    <t>HLCUFRA190309184</t>
-  </si>
-  <si>
-    <t>UACU5720042</t>
-  </si>
-  <si>
-    <t>DJCLTA4072648</t>
-  </si>
-  <si>
-    <t>7250574876</t>
-  </si>
-  <si>
-    <t>HLCUHEL190306866</t>
-  </si>
-  <si>
-    <t>MOFU0707631</t>
-  </si>
-  <si>
-    <t>CHI1197329-CHI8134684</t>
-  </si>
-  <si>
-    <t>PRGV01448500</t>
-  </si>
-  <si>
-    <t>ACLU9788443</t>
-  </si>
-  <si>
-    <t>03219</t>
-  </si>
-  <si>
-    <t>7310516669</t>
-  </si>
-  <si>
-    <t>SA00383721</t>
-  </si>
-  <si>
-    <t>ACLU9774012</t>
-  </si>
-  <si>
-    <t>BREVIK BRIDGE</t>
-  </si>
-  <si>
-    <t>BVB0719</t>
-  </si>
-  <si>
-    <t>SA003776290101</t>
-  </si>
-  <si>
-    <t>BVB0719SA00377629</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -957,7 +963,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -975,18 +981,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1079,12 +1361,11 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1097,12 +1378,11 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +1422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1155,12 +1435,11 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1180,7 +1459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1193,12 +1472,11 @@
       <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1218,7 +1496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1231,12 +1509,11 @@
       <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1249,12 +1526,11 @@
       <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1267,12 +1543,11 @@
       <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1567,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1587,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1325,12 +1600,11 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1343,12 +1617,11 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1361,12 +1634,11 @@
       <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -1379,12 +1651,11 @@
       <c r="D21" t="s">
         <v>85</v>
       </c>
-      <c r="E21"/>
       <c r="F21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -1397,12 +1668,11 @@
       <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1415,12 +1685,11 @@
       <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="E23"/>
       <c r="F23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -1433,12 +1702,11 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24"/>
       <c r="F24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1451,12 +1719,11 @@
       <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -1469,12 +1736,11 @@
       <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1487,12 +1753,11 @@
       <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -1505,12 +1770,11 @@
       <c r="D28" t="s">
         <v>109</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -1523,12 +1787,11 @@
       <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -1541,14 +1804,13 @@
       <c r="D30" t="s">
         <v>117</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -1557,16 +1819,15 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31"/>
+        <v>306</v>
+      </c>
       <c r="F31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -1575,16 +1836,15 @@
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32"/>
+        <v>304</v>
+      </c>
       <c r="F32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -1593,16 +1853,15 @@
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33"/>
+        <v>302</v>
+      </c>
       <c r="F33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -1611,16 +1870,15 @@
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34"/>
+        <v>300</v>
+      </c>
       <c r="F34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -1629,16 +1887,15 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35"/>
+        <v>298</v>
+      </c>
       <c r="F35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -1647,16 +1904,15 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36"/>
+        <v>295</v>
+      </c>
       <c r="F36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
@@ -1665,36 +1921,35 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37"/>
+        <v>293</v>
+      </c>
       <c r="F37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -1703,112 +1958,109 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39"/>
+        <v>285</v>
+      </c>
       <c r="F39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40"/>
+        <v>282</v>
+      </c>
       <c r="F40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43"/>
+        <v>270</v>
+      </c>
       <c r="F43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
@@ -1817,16 +2069,15 @@
         <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45"/>
+        <v>265</v>
+      </c>
       <c r="F45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -1835,16 +2086,15 @@
         <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46"/>
+        <v>263</v>
+      </c>
       <c r="F46" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -1853,54 +2103,52 @@
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47"/>
+        <v>260</v>
+      </c>
       <c r="F47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49"/>
+        <v>253</v>
+      </c>
       <c r="F49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
@@ -1909,16 +2157,15 @@
         <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50"/>
+        <v>250</v>
+      </c>
       <c r="F50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
@@ -1927,16 +2174,15 @@
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51"/>
+        <v>248</v>
+      </c>
       <c r="F51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -1945,36 +2191,35 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52"/>
+        <v>245</v>
+      </c>
       <c r="F52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -1983,16 +2228,15 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E54"/>
+        <v>236</v>
+      </c>
       <c r="F54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -2001,36 +2245,35 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55"/>
+        <v>234</v>
+      </c>
       <c r="F55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
@@ -2039,118 +2282,118 @@
         <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
         <v>91</v>
       </c>
       <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>204</v>
-      </c>
-      <c r="D58" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>207</v>
-      </c>
-      <c r="B59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>225</v>
       </c>
       <c r="B63" t="s">
         <v>38</v>
@@ -2159,18 +2402,18 @@
         <v>28</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
         <v>38</v>
@@ -2179,96 +2422,95 @@
         <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64"/>
+        <v>200</v>
+      </c>
       <c r="F64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="F66" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -2277,18 +2519,18 @@
         <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -2297,58 +2539,58 @@
         <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D71" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -2357,16 +2599,15 @@
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E73"/>
+        <v>164</v>
+      </c>
       <c r="F73" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
@@ -2375,18 +2616,18 @@
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
@@ -2395,38 +2636,38 @@
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
@@ -2435,16 +2676,15 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
-      </c>
-      <c r="E77"/>
+        <v>149</v>
+      </c>
       <c r="F77" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
@@ -2453,16 +2693,15 @@
         <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
-      </c>
-      <c r="E78"/>
+        <v>146</v>
+      </c>
       <c r="F78" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
@@ -2471,58 +2710,58 @@
         <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="E79" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="F80" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="F81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
@@ -2531,52 +2770,50 @@
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
-      </c>
-      <c r="E82"/>
+        <v>129</v>
+      </c>
       <c r="F82" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84"/>
+        <v>120</v>
+      </c>
       <c r="F84" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NCT/Test.xlsx
+++ b/NCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="261">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -146,21 +146,6 @@
     <t>SA003743840101</t>
   </si>
   <si>
-    <t>CMAU8182565</t>
-  </si>
-  <si>
-    <t>CMA CGM ALCAZAR</t>
-  </si>
-  <si>
-    <t>0VB2T</t>
-  </si>
-  <si>
-    <t>9089905174-01</t>
-  </si>
-  <si>
-    <t>CMDUGDY0201728</t>
-  </si>
-  <si>
     <t>GESU3587508</t>
   </si>
   <si>
@@ -176,21 +161,6 @@
     <t>GOTV04535400</t>
   </si>
   <si>
-    <t>TCLU1521188</t>
-  </si>
-  <si>
-    <t>9089905176-01</t>
-  </si>
-  <si>
-    <t>FDCU0368158</t>
-  </si>
-  <si>
-    <t>CHI1223330-CHI8308585</t>
-  </si>
-  <si>
-    <t>HAMV37359600</t>
-  </si>
-  <si>
     <t>TEMU8826062</t>
   </si>
   <si>
@@ -209,15 +179,6 @@
     <t>VNAV02734900</t>
   </si>
   <si>
-    <t>TLLU5681238</t>
-  </si>
-  <si>
-    <t>CHI1226516-CHI8365796</t>
-  </si>
-  <si>
-    <t>ANRV11189800</t>
-  </si>
-  <si>
     <t>KKFU7949640</t>
   </si>
   <si>
@@ -227,12 +188,6 @@
     <t>BUDV00443800</t>
   </si>
   <si>
-    <t>TCLU8818408</t>
-  </si>
-  <si>
-    <t>CHI1227452-CHI8278845</t>
-  </si>
-  <si>
     <t>UETU4151120</t>
   </si>
   <si>
@@ -242,21 +197,6 @@
     <t>PRGV01451600</t>
   </si>
   <si>
-    <t>TCNU1910947</t>
-  </si>
-  <si>
-    <t>HUMEN BRIDGE</t>
-  </si>
-  <si>
-    <t>00041</t>
-  </si>
-  <si>
-    <t>7310514526</t>
-  </si>
-  <si>
-    <t>HLCUSHA1904FVAY0</t>
-  </si>
-  <si>
     <t>XINU1489242</t>
   </si>
   <si>
@@ -344,234 +284,195 @@
     <t>CHI1219253-CHI8308586</t>
   </si>
   <si>
-    <t>CLHU4545470</t>
+    <t>FDCU0478129</t>
+  </si>
+  <si>
+    <t>CHI1247677-CHI8512726</t>
+  </si>
+  <si>
+    <t>HAMV36430900</t>
+  </si>
+  <si>
+    <t>KKFU7448660</t>
+  </si>
+  <si>
+    <t>MOL EMPIRE</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>CHI1240020-CHI8459815</t>
+  </si>
+  <si>
+    <t>GOTV04796600</t>
+  </si>
+  <si>
+    <t>TCNU9922841</t>
+  </si>
+  <si>
+    <t>CHI1244563-CHI8494785</t>
+  </si>
+  <si>
+    <t>GOTV04718700</t>
+  </si>
+  <si>
+    <t>CMAU8235670</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJCHSA4162050</t>
+  </si>
+  <si>
+    <t>7310518076</t>
+  </si>
+  <si>
+    <t>CMDUFRA0348198</t>
+  </si>
+  <si>
+    <t>UACU8537884</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>DJCHSA4162063</t>
+  </si>
+  <si>
+    <t>7310518242</t>
+  </si>
+  <si>
+    <t>HLCUHAM190442896</t>
+  </si>
+  <si>
+    <t>MRKU5791675</t>
+  </si>
+  <si>
+    <t>MAERSK KINLOSS</t>
+  </si>
+  <si>
+    <t>00916</t>
+  </si>
+  <si>
+    <t>DJCHSA4167349</t>
+  </si>
+  <si>
+    <t>7310515235</t>
+  </si>
+  <si>
+    <t>MAEU581519159</t>
+  </si>
+  <si>
+    <t>TGHU6209211</t>
+  </si>
+  <si>
+    <t>DJCHSA4167392</t>
+  </si>
+  <si>
+    <t>7310518412</t>
+  </si>
+  <si>
+    <t>HLCUFRA190415217</t>
+  </si>
+  <si>
+    <t>GCNU4707930</t>
+  </si>
+  <si>
+    <t>03319</t>
+  </si>
+  <si>
+    <t>7310518215</t>
+  </si>
+  <si>
+    <t>SA00387650</t>
+  </si>
+  <si>
+    <t>UACU8146529</t>
+  </si>
+  <si>
+    <t>00061</t>
+  </si>
+  <si>
+    <t>DJCHSA4162056</t>
+  </si>
+  <si>
+    <t>7310518269</t>
+  </si>
+  <si>
+    <t>HLCUHAM190442841</t>
+  </si>
+  <si>
+    <t>CAIU9241802</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>DJCHSA4162053</t>
+  </si>
+  <si>
+    <t>7310517784</t>
+  </si>
+  <si>
+    <t>CMDUFRA0348454</t>
+  </si>
+  <si>
+    <t>UACU3774461</t>
+  </si>
+  <si>
+    <t>DJCHSA4162069</t>
+  </si>
+  <si>
+    <t>7310518260</t>
+  </si>
+  <si>
+    <t>HLCUEUR1904ASMC7</t>
+  </si>
+  <si>
+    <t>CMAU7479311</t>
+  </si>
+  <si>
+    <t>7310517943</t>
+  </si>
+  <si>
+    <t>CMDUFRA0345446</t>
+  </si>
+  <si>
+    <t>UASU1013547</t>
+  </si>
+  <si>
+    <t>7310518323</t>
+  </si>
+  <si>
+    <t>LIV190360753</t>
+  </si>
+  <si>
+    <t>FDCU0356711</t>
+  </si>
+  <si>
+    <t>00024</t>
+  </si>
+  <si>
+    <t>7310517582</t>
+  </si>
+  <si>
+    <t>RTMV12841500</t>
+  </si>
+  <si>
+    <t>KKFU8008460</t>
+  </si>
+  <si>
+    <t>CHI1247677-CHI8512727</t>
+  </si>
+  <si>
+    <t>GCNU4677749</t>
   </si>
   <si>
     <t>CHARLESTON EXPRESS</t>
   </si>
   <si>
-    <t>00068</t>
-  </si>
-  <si>
-    <t>DJCHSA4162038</t>
-  </si>
-  <si>
-    <t>7310517700</t>
-  </si>
-  <si>
-    <t>HLCUHAM190316041</t>
-  </si>
-  <si>
-    <t>FDCU0478129</t>
-  </si>
-  <si>
-    <t>CHI1247677-CHI8512726</t>
-  </si>
-  <si>
-    <t>HAMV36430900</t>
-  </si>
-  <si>
-    <t>KKFU7448660</t>
-  </si>
-  <si>
-    <t>MOL EMPIRE</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>CHI1240020-CHI8459815</t>
-  </si>
-  <si>
-    <t>GOTV04796600</t>
-  </si>
-  <si>
-    <t>CMAU7133057</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJCHSA4162043</t>
-  </si>
-  <si>
-    <t>7310517867</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348197</t>
-  </si>
-  <si>
-    <t>TCNU9922841</t>
-  </si>
-  <si>
-    <t>CHI1244563-CHI8494785</t>
-  </si>
-  <si>
-    <t>GOTV04718700</t>
-  </si>
-  <si>
-    <t>CMAU8235670</t>
-  </si>
-  <si>
-    <t>DJCHSA4162050</t>
-  </si>
-  <si>
-    <t>7310518076</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348198</t>
-  </si>
-  <si>
-    <t>UACU8537884</t>
-  </si>
-  <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>DJCHSA4162063</t>
-  </si>
-  <si>
-    <t>7310518242</t>
-  </si>
-  <si>
-    <t>HLCUHAM190442896</t>
-  </si>
-  <si>
-    <t>MRKU5791675</t>
-  </si>
-  <si>
-    <t>MAERSK KINLOSS</t>
-  </si>
-  <si>
-    <t>00916</t>
-  </si>
-  <si>
-    <t>DJCHSA4167349</t>
-  </si>
-  <si>
-    <t>7310515235</t>
-  </si>
-  <si>
-    <t>MAEU581519159</t>
-  </si>
-  <si>
-    <t>TGHU6209211</t>
-  </si>
-  <si>
-    <t>DJCHSA4167392</t>
-  </si>
-  <si>
-    <t>7310518412</t>
-  </si>
-  <si>
-    <t>HLCUFRA190415217</t>
-  </si>
-  <si>
-    <t>GCNU4707930</t>
-  </si>
-  <si>
-    <t>03319</t>
-  </si>
-  <si>
-    <t>7310518215</t>
-  </si>
-  <si>
-    <t>SA00387650</t>
-  </si>
-  <si>
-    <t>UACU3359033</t>
-  </si>
-  <si>
-    <t>DJCHSA4162041</t>
-  </si>
-  <si>
-    <t>7310517688</t>
-  </si>
-  <si>
-    <t>HLCUHAM190487544</t>
-  </si>
-  <si>
-    <t>UACU8146529</t>
-  </si>
-  <si>
-    <t>00061</t>
-  </si>
-  <si>
-    <t>DJCHSA4162056</t>
-  </si>
-  <si>
-    <t>7310518269</t>
-  </si>
-  <si>
-    <t>HLCUHAM190442841</t>
-  </si>
-  <si>
-    <t>CAIU9241802</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>DJCHSA4162053</t>
-  </si>
-  <si>
-    <t>7310517784</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348454</t>
-  </si>
-  <si>
-    <t>UACU3774461</t>
-  </si>
-  <si>
-    <t>DJCHSA4162069</t>
-  </si>
-  <si>
-    <t>7310518260</t>
-  </si>
-  <si>
-    <t>HLCUEUR1904ASMC7</t>
-  </si>
-  <si>
-    <t>CMAU7479311</t>
-  </si>
-  <si>
-    <t>7310517943</t>
-  </si>
-  <si>
-    <t>CMDUFRA0345446</t>
-  </si>
-  <si>
-    <t>UASU1013547</t>
-  </si>
-  <si>
-    <t>7310518323</t>
-  </si>
-  <si>
-    <t>LIV190360753</t>
-  </si>
-  <si>
-    <t>FDCU0356711</t>
-  </si>
-  <si>
-    <t>00024</t>
-  </si>
-  <si>
-    <t>7310517582</t>
-  </si>
-  <si>
-    <t>RTMV12841500</t>
-  </si>
-  <si>
-    <t>KKFU8008460</t>
-  </si>
-  <si>
-    <t>CHI1247677-CHI8512727</t>
-  </si>
-  <si>
-    <t>GCNU4677749</t>
-  </si>
-  <si>
     <t>CLX3219</t>
   </si>
   <si>
@@ -581,21 +482,6 @@
     <t>CLX3219SA00385378</t>
   </si>
   <si>
-    <t>MSKU9137690</t>
-  </si>
-  <si>
-    <t>MAERSK KENSINGTON</t>
-  </si>
-  <si>
-    <t>0915W</t>
-  </si>
-  <si>
-    <t>7310515445</t>
-  </si>
-  <si>
-    <t>SAFM711828343</t>
-  </si>
-  <si>
     <t>ONEU0203405</t>
   </si>
   <si>
@@ -614,18 +500,6 @@
     <t>CHI1247008-CHI8004843</t>
   </si>
   <si>
-    <t>CMAU8306795</t>
-  </si>
-  <si>
-    <t>DJCHSA4162037</t>
-  </si>
-  <si>
-    <t>7310517878</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348189</t>
-  </si>
-  <si>
     <t>TEMU4408151</t>
   </si>
   <si>
@@ -662,30 +536,6 @@
     <t>GOTV04616400</t>
   </si>
   <si>
-    <t>UACU8111060</t>
-  </si>
-  <si>
-    <t>DJCHSA4162047</t>
-  </si>
-  <si>
-    <t>7310517696</t>
-  </si>
-  <si>
-    <t>HLCUHAM190442724</t>
-  </si>
-  <si>
-    <t>GLDU5014585</t>
-  </si>
-  <si>
-    <t>DJCHSA4162046</t>
-  </si>
-  <si>
-    <t>7310517898</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348456</t>
-  </si>
-  <si>
     <t>TTNU4897564</t>
   </si>
   <si>
@@ -704,33 +554,12 @@
     <t>CHI1247008-CHI8004842</t>
   </si>
   <si>
-    <t>HLBU2090883</t>
-  </si>
-  <si>
-    <t>7310517425</t>
-  </si>
-  <si>
-    <t>HLCUEUR1902APUA3</t>
-  </si>
-  <si>
     <t>HLXU6292853</t>
   </si>
   <si>
     <t>DJCHSA4167390</t>
   </si>
   <si>
-    <t>CAIU9014136</t>
-  </si>
-  <si>
-    <t>0LB2ZW</t>
-  </si>
-  <si>
-    <t>9076905836-01</t>
-  </si>
-  <si>
-    <t>CMDUBTS0120761</t>
-  </si>
-  <si>
     <t>UACU8479181</t>
   </si>
   <si>
@@ -881,42 +710,6 @@
     <t>CMDUFRA0347902</t>
   </si>
   <si>
-    <t>CMAU1884003</t>
-  </si>
-  <si>
-    <t>DJCHSA4162045</t>
-  </si>
-  <si>
-    <t>7310517901</t>
-  </si>
-  <si>
-    <t>CMDUFRA0348455</t>
-  </si>
-  <si>
-    <t>UACU8419285</t>
-  </si>
-  <si>
-    <t>DJCLTA4155576</t>
-  </si>
-  <si>
-    <t>7250575916</t>
-  </si>
-  <si>
-    <t>HLCUGOT190408583</t>
-  </si>
-  <si>
-    <t>GCNU4748204</t>
-  </si>
-  <si>
-    <t>DJCHSA4166666</t>
-  </si>
-  <si>
-    <t>7310516637</t>
-  </si>
-  <si>
-    <t>ACLUSA00372144</t>
-  </si>
-  <si>
     <t>CMAU1534957</t>
   </si>
   <si>
@@ -948,15 +741,6 @@
   </si>
   <si>
     <t>CMDUFRA0345445</t>
-  </si>
-  <si>
-    <t>TCNU1162423</t>
-  </si>
-  <si>
-    <t>7310517946</t>
-  </si>
-  <si>
-    <t>CMDUFRA0345447</t>
   </si>
   <si>
     <t>TRLU7562590</t>
@@ -1055,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1252,22 +1036,22 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1276,52 +1060,52 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -1330,106 +1114,110 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17"/>
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19"/>
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1438,94 +1226,88 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23"/>
+      <c r="F23" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E25"/>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1534,63 +1316,65 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>104</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>105</v>
       </c>
@@ -1600,209 +1384,217 @@
         <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30"/>
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31"/>
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33"/>
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34"/>
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36"/>
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" t="s">
-        <v>149</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -1810,1017 +1602,641 @@
         <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" t="s">
-        <v>153</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E41"/>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" t="s">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E42"/>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>161</v>
       </c>
-      <c r="E43" t="s">
-        <v>162</v>
-      </c>
+      <c r="E43"/>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
         <v>164</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" t="s">
-        <v>174</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" t="s">
-        <v>177</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E47"/>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50"/>
+        <v>181</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52"/>
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>189</v>
+      </c>
       <c r="F52" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53"/>
+        <v>192</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" t="s">
-        <v>202</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E54"/>
       <c r="F54" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" t="s">
-        <v>218</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E59"/>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" t="s">
-        <v>222</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E60"/>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62"/>
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" t="s">
-        <v>231</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" t="s">
-        <v>149</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E64"/>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65"/>
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>230</v>
+      </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B71" t="s">
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72"/>
+        <v>254</v>
+      </c>
+      <c r="E72" t="s">
+        <v>255</v>
+      </c>
       <c r="F72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>267</v>
-      </c>
-      <c r="B75" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" t="s">
-        <v>268</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>270</v>
-      </c>
-      <c r="B76" t="s">
-        <v>271</v>
-      </c>
-      <c r="C76" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" t="s">
-        <v>273</v>
-      </c>
-      <c r="F76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" t="s">
-        <v>279</v>
-      </c>
-      <c r="F77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>281</v>
-      </c>
-      <c r="B78" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>282</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>284</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>285</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" t="s">
-        <v>286</v>
-      </c>
-      <c r="E80" t="s">
-        <v>287</v>
-      </c>
-      <c r="F80" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>289</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>125</v>
-      </c>
-      <c r="D81" t="s">
-        <v>290</v>
-      </c>
-      <c r="E81" t="s">
-        <v>291</v>
-      </c>
-      <c r="F81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>293</v>
-      </c>
-      <c r="B82" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" t="s">
-        <v>295</v>
-      </c>
-      <c r="F82" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>297</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83" t="s">
-        <v>299</v>
-      </c>
-      <c r="F83" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" t="s">
-        <v>302</v>
-      </c>
-      <c r="E84" t="s">
-        <v>303</v>
-      </c>
-      <c r="F84" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>305</v>
-      </c>
-      <c r="B85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85" t="s">
-        <v>307</v>
-      </c>
-      <c r="F85" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" t="s">
-        <v>310</v>
-      </c>
-      <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="F86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>312</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" t="s">
-        <v>313</v>
-      </c>
-      <c r="E87" t="s">
-        <v>313</v>
-      </c>
-      <c r="F87" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>315</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" t="s">
-        <v>316</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>318</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="s">
-        <v>319</v>
-      </c>
-      <c r="D89" t="s">
-        <v>320</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>322</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" t="s">
-        <v>323</v>
-      </c>
-      <c r="F90" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" t="s">
-        <v>326</v>
-      </c>
-      <c r="E91" t="s">
-        <v>327</v>
-      </c>
-      <c r="F91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>329</v>
-      </c>
-      <c r="B92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" t="s">
-        <v>330</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>331</v>
-      </c>
-      <c r="B93" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" t="s">
-        <v>332</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
